--- a/CashFlow/FTNT_cashflow.xlsx
+++ b/CashFlow/FTNT_cashflow.xlsx
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>386300000.0</v>
+        <v>-63600000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>506000000.0</v>
+        <v>-42200000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>484000000.0</v>
+        <v>-54300000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>329300000.0</v>
+        <v>-60900000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>200400000.0</v>
+        <v>-39200000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>92800000.0</v>
+        <v>-48500000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-39600000.0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>39700000.0</v>
+        <v>338300000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>37400000.0</v>
+        <v>433000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>9700000.0</v>
+        <v>387000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>18500000.0</v>
+        <v>285900000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-6300000.0</v>
+        <v>172800000.0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-12200000.0</v>
+        <v>69900000.0</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>-3500000.0</v>
@@ -3838,10 +3838,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>-165600000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>-1058000000.0</v>
